--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -6921,10 +6921,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -6956,13 +6956,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6978,10 +6971,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6994,21 +6994,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7029,6 +7014,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -7045,16 +7045,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7076,24 +7085,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7108,7 +7108,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7120,13 +7168,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7138,25 +7246,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7168,25 +7276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7198,97 +7288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7353,6 +7353,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7364,24 +7373,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7426,16 +7417,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7444,7 +7444,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7453,7 +7453,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7462,16 +7462,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7480,97 +7480,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -77817,7 +77817,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P228" sqref="P228"/>
+      <selection pane="bottomRight" activeCell="I225" sqref="I225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -99139,11 +99139,11 @@
   <dimension ref="A1:AS31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AN17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT6" sqref="AT6"/>
+      <selection pane="bottomRight" activeCell="AT33" sqref="AT33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -102186,7 +102186,7 @@
       <c r="AQ30"/>
       <c r="AR30"/>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:45">
       <c r="A31" s="1" t="s">
         <v>2295</v>
       </c>
@@ -102336,6 +102336,9 @@
       <c r="AR31" t="str">
         <f>IFERROR(VLOOKUP(AL31,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>I-58</v>
+      </c>
+      <c r="AS31" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16128" windowHeight="7524" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="22488" windowHeight="9347" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -6921,9 +6921,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -6955,8 +6955,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6979,14 +7034,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6999,31 +7054,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7037,17 +7070,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7058,30 +7082,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7108,7 +7108,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7120,19 +7222,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7145,150 +7289,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7329,6 +7329,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7353,11 +7388,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7377,52 +7418,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7432,10 +7432,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7444,133 +7444,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -18097,11 +18097,11 @@
   <dimension ref="A1:AC178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M71" sqref="M71"/>
+      <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -77812,12 +77812,12 @@
   <sheetPr/>
   <dimension ref="A1:AD230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F214" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F209" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I225" sqref="I225"/>
+      <selection pane="bottomRight" activeCell="N232" sqref="N232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -99138,12 +99138,12 @@
   <sheetPr/>
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AN17" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT33" sqref="AT33"/>
+      <selection pane="bottomRight" activeCell="AS26" sqref="AS26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -102338,7 +102338,7 @@
         <v>I-58</v>
       </c>
       <c r="AS31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -6921,9 +6921,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -6957,22 +6957,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6990,6 +6974,30 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7017,22 +7025,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -7054,11 +7046,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7070,6 +7069,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -7078,7 +7078,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -7114,19 +7114,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7144,7 +7162,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7156,43 +7264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7204,91 +7282,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7329,6 +7329,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -7345,21 +7375,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7382,23 +7397,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7417,25 +7426,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7444,133 +7444,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -33801,11 +33801,11 @@
   <dimension ref="A1:AA602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E580" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D591" sqref="D591"/>
+      <selection pane="bottomRight" activeCell="D612" sqref="D612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -77813,11 +77813,11 @@
   <dimension ref="A1:AD230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G215" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N232" sqref="N232"/>
+      <selection pane="bottomRight" activeCell="N225" sqref="N225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -95436,7 +95436,7 @@
         <v>50</v>
       </c>
       <c r="N226">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="O226">
         <v>27</v>
@@ -95538,7 +95538,7 @@
         <v>644</v>
       </c>
       <c r="U227" t="s">
-        <v>1858</v>
+        <v>1865</v>
       </c>
       <c r="V227">
         <f t="shared" si="7"/>
@@ -95823,11 +95823,11 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" activeTab="3"/>
+    <workbookView windowWidth="22488" windowHeight="9347" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -6955,25 +6955,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6996,37 +6986,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7047,6 +7016,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -7061,6 +7037,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -7069,24 +7069,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7108,7 +7108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7120,7 +7126,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7132,13 +7264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7150,145 +7276,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7330,16 +7330,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7370,26 +7385,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7403,26 +7401,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7432,10 +7432,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7444,133 +7444,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -77812,7 +77812,7 @@
   <sheetPr/>
   <dimension ref="A1:AD230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="G215" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -99138,12 +99138,12 @@
   <sheetPr/>
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS26" sqref="AS26"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -6921,10 +6921,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -6956,9 +6956,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6969,9 +6977,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6986,7 +7016,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -7002,14 +7032,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7017,29 +7040,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7061,24 +7061,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7092,8 +7077,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7108,7 +7108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7120,37 +7126,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7162,7 +7150,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7174,13 +7168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7198,19 +7186,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7222,19 +7228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7246,19 +7246,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7270,25 +7282,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7329,6 +7329,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7345,16 +7389,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7377,52 +7421,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7432,10 +7432,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7444,133 +7444,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -77813,11 +77813,11 @@
   <dimension ref="A1:AD230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G215" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J212" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N225" sqref="N225"/>
+      <selection pane="bottomRight" activeCell="L230" sqref="L230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -78180,7 +78180,7 @@
         <v>60</v>
       </c>
       <c r="N5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O5">
         <v>45</v>
@@ -78258,7 +78258,7 @@
         <v>83</v>
       </c>
       <c r="N6">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="O6">
         <v>45</v>
@@ -79173,7 +79173,7 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O18">
         <v>25</v>
@@ -79251,7 +79251,7 @@
         <v>12</v>
       </c>
       <c r="N19">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O19">
         <v>30</v>
@@ -79329,7 +79329,7 @@
         <v>45</v>
       </c>
       <c r="N20">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O20">
         <v>35</v>
@@ -79407,7 +79407,7 @@
         <v>50</v>
       </c>
       <c r="N21">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O21">
         <v>35</v>
@@ -79485,7 +79485,7 @@
         <v>15</v>
       </c>
       <c r="N22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O22">
         <v>30</v>
@@ -79563,7 +79563,7 @@
         <v>28</v>
       </c>
       <c r="N23">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O23">
         <v>33</v>
@@ -79641,7 +79641,7 @@
         <v>47</v>
       </c>
       <c r="N24">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O24">
         <v>36</v>
@@ -79719,7 +79719,7 @@
         <v>15</v>
       </c>
       <c r="N25">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O25">
         <v>30</v>
@@ -79794,7 +79794,7 @@
         <v>26</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O26">
         <v>33</v>
@@ -79869,7 +79869,7 @@
         <v>46</v>
       </c>
       <c r="N27">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O27">
         <v>36</v>
@@ -79950,7 +79950,7 @@
         <v>63</v>
       </c>
       <c r="N28">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="O28">
         <v>36</v>
@@ -80031,7 +80031,7 @@
         <v>15</v>
       </c>
       <c r="N29">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O29">
         <v>30</v>
@@ -80106,7 +80106,7 @@
         <v>24</v>
       </c>
       <c r="N30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O30">
         <v>33</v>
@@ -80340,7 +80340,7 @@
         <v>3</v>
       </c>
       <c r="N33">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O33">
         <v>25</v>
@@ -80418,7 +80418,7 @@
         <v>10</v>
       </c>
       <c r="N34">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O34">
         <v>30</v>
@@ -80496,7 +80496,7 @@
         <v>40</v>
       </c>
       <c r="N35">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O35">
         <v>35</v>
@@ -80577,7 +80577,7 @@
         <v>60</v>
       </c>
       <c r="N36">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O36">
         <v>40</v>
@@ -80658,7 +80658,7 @@
         <v>12</v>
       </c>
       <c r="N37">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O37">
         <v>25</v>
@@ -80736,7 +80736,7 @@
         <v>20</v>
       </c>
       <c r="N38">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O38">
         <v>30</v>
@@ -80817,7 +80817,7 @@
         <v>50</v>
       </c>
       <c r="N39">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O39">
         <v>35</v>
@@ -80898,7 +80898,7 @@
         <v>57</v>
       </c>
       <c r="N40">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O40">
         <v>35</v>
@@ -80979,7 +80979,7 @@
         <v>20</v>
       </c>
       <c r="N41">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O41">
         <v>27</v>
@@ -81138,7 +81138,7 @@
         <v>55</v>
       </c>
       <c r="N43">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O43">
         <v>33</v>
@@ -81216,7 +81216,7 @@
         <v>65</v>
       </c>
       <c r="N44">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O44">
         <v>36</v>
@@ -81450,7 +81450,7 @@
         <v>40</v>
       </c>
       <c r="N47">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O47">
         <v>24</v>
@@ -81528,7 +81528,7 @@
         <v>43</v>
       </c>
       <c r="N48">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="O48">
         <v>24</v>
@@ -83010,7 +83010,7 @@
         <v>12</v>
       </c>
       <c r="N67">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O67">
         <v>27</v>
@@ -83166,7 +83166,7 @@
         <v>50</v>
       </c>
       <c r="N69">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O69">
         <v>33</v>
@@ -83244,7 +83244,7 @@
         <v>57</v>
       </c>
       <c r="N70">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O70">
         <v>33</v>
@@ -83763,7 +83763,7 @@
         <v>75</v>
       </c>
       <c r="N77">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O77">
         <v>35</v>
@@ -83844,7 +83844,7 @@
         <v>82</v>
       </c>
       <c r="N78">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="O78">
         <v>35</v>
@@ -84711,7 +84711,7 @@
         <v>65</v>
       </c>
       <c r="N89">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O89">
         <v>36</v>
@@ -84789,7 +84789,7 @@
         <v>75</v>
       </c>
       <c r="N90">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O90">
         <v>40</v>
@@ -84867,7 +84867,7 @@
         <v>40</v>
       </c>
       <c r="N91">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O91">
         <v>30</v>
@@ -84948,7 +84948,7 @@
         <v>50</v>
       </c>
       <c r="N92">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O92">
         <v>30</v>
@@ -85029,7 +85029,7 @@
         <v>55</v>
       </c>
       <c r="N93">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O93">
         <v>35</v>
@@ -85110,7 +85110,7 @@
         <v>60</v>
       </c>
       <c r="N94">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O94">
         <v>35</v>
@@ -85191,7 +85191,7 @@
         <v>45</v>
       </c>
       <c r="N95">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O95">
         <v>30</v>
@@ -85269,7 +85269,7 @@
         <v>50</v>
       </c>
       <c r="N96">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O96">
         <v>30</v>
@@ -95823,11 +95823,11 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -99139,11 +99139,11 @@
   <dimension ref="A1:AS31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="X5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="AG20" sqref="AG20:AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -101036,34 +101036,34 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>1845</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="M19" s="10" t="str">
         <f>IFERROR(VLOOKUP(G19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="N19" t="str">
         <f>IFERROR(VLOOKUP(H19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="O19" t="str">
         <f>IFERROR(VLOOKUP(I19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>航母Ο级Ⅳ型</v>
+        <v>航母Ο级Ⅲ型</v>
       </c>
       <c r="P19" t="str">
         <f>IFERROR(VLOOKUP(J19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -101071,44 +101071,44 @@
       </c>
       <c r="Q19" t="str">
         <f>IFERROR(VLOOKUP(K19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>轻巡ei级Ⅳ型</v>
+        <v>轻巡ei级Ⅲ型</v>
       </c>
       <c r="R19" t="str">
         <f>IFERROR(VLOOKUP(L19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>驱逐Τ级Ⅲ型</v>
+        <v>驱逐Τ级Ⅱ型</v>
       </c>
       <c r="S19" s="3">
         <v>2</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>1845</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="Z19" s="10" t="str">
         <f>IFERROR(VLOOKUP(T19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="AA19" t="str">
         <f>IFERROR(VLOOKUP(U19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="AB19" t="str">
         <f>IFERROR(VLOOKUP(V19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>航母Ο级Ⅳ型</v>
+        <v>航母Ο级Ⅲ型</v>
       </c>
       <c r="AC19" t="str">
         <f>IFERROR(VLOOKUP(W19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -101116,44 +101116,44 @@
       </c>
       <c r="AD19" t="str">
         <f>IFERROR(VLOOKUP(X19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>轻巡ei级Ⅳ型</v>
+        <v>轻巡ei级Ⅲ型</v>
       </c>
       <c r="AE19" t="str">
         <f>IFERROR(VLOOKUP(Y19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>驱逐Τ级Ⅲ型</v>
+        <v>驱逐Τ级Ⅱ型</v>
       </c>
       <c r="AF19" s="3">
         <v>4</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="AJ19" s="1" t="s">
         <v>1845</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="AM19" s="10" t="str">
         <f>IFERROR(VLOOKUP(AG19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="AN19" t="str">
         <f>IFERROR(VLOOKUP(AH19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="AO19" t="str">
         <f>IFERROR(VLOOKUP(AI19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>航母Ο级Ⅳ型</v>
+        <v>航母Ο级Ⅲ型</v>
       </c>
       <c r="AP19" t="str">
         <f>IFERROR(VLOOKUP(AJ19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -101161,11 +101161,11 @@
       </c>
       <c r="AQ19" t="str">
         <f>IFERROR(VLOOKUP(AK19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>轻巡ei级Ⅳ型</v>
+        <v>轻巡ei级Ⅲ型</v>
       </c>
       <c r="AR19" t="str">
         <f>IFERROR(VLOOKUP(AL19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>驱逐Τ级Ⅲ型</v>
+        <v>驱逐Τ级Ⅱ型</v>
       </c>
     </row>
     <row r="20" spans="1:44">
@@ -101188,13 +101188,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>1966</v>
@@ -101207,15 +101207,15 @@
       </c>
       <c r="M20" s="10" t="str">
         <f>IFERROR(VLOOKUP(G20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="N20" t="str">
         <f>IFERROR(VLOOKUP(H20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="O20" t="str">
         <f>IFERROR(VLOOKUP(I20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="P20" t="str">
         <f>IFERROR(VLOOKUP(J20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -101233,13 +101233,13 @@
         <v>2</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>1966</v>
@@ -101252,15 +101252,15 @@
       </c>
       <c r="Z20" s="10" t="str">
         <f>IFERROR(VLOOKUP(T20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="AA20" t="str">
         <f>IFERROR(VLOOKUP(U20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="AB20" t="str">
         <f>IFERROR(VLOOKUP(V20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="AC20" t="str">
         <f>IFERROR(VLOOKUP(W20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -101278,13 +101278,13 @@
         <v>4</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="AJ20" s="1" t="s">
         <v>1966</v>
@@ -101297,15 +101297,15 @@
       </c>
       <c r="AM20" s="10" t="str">
         <f>IFERROR(VLOOKUP(AG20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="AN20" t="str">
         <f>IFERROR(VLOOKUP(AH20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="AO20" t="str">
         <f>IFERROR(VLOOKUP(AI20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>战列Λ级Ⅳ型</v>
+        <v>战列Λ级Ⅲ型</v>
       </c>
       <c r="AP20" t="str">
         <f>IFERROR(VLOOKUP(AJ20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" activeTab="5"/>
+    <workbookView windowWidth="22488" windowHeight="9347" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -6960,8 +6960,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -6994,8 +6994,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7003,51 +7004,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7063,6 +7027,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -7078,14 +7071,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7099,24 +7085,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7130,9 +7115,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7147,7 +7147,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7159,7 +7165,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7171,163 +7327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7368,26 +7368,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7403,6 +7394,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7431,36 +7451,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -7471,10 +7471,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7483,133 +7483,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -18136,11 +18136,11 @@
   <dimension ref="A1:AC178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D117" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomRight" activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -33840,11 +33840,11 @@
   <dimension ref="A1:AA606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M586" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M377" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C612" sqref="C612"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -77994,12 +77994,12 @@
   <sheetPr/>
   <dimension ref="A1:AD230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J212" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F212" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L230" sqref="L230"/>
+      <selection pane="bottomRight" activeCell="I231" sqref="I231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -95522,7 +95522,7 @@
         <v>270</v>
       </c>
       <c r="J225" s="15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K225">
         <v>0</v>
@@ -95531,7 +95531,7 @@
         <v>86</v>
       </c>
       <c r="M225" s="15">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N225" s="15">
         <v>50</v>
@@ -95603,10 +95603,10 @@
         <v>0</v>
       </c>
       <c r="I226">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J226">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -95684,10 +95684,10 @@
         <v>0</v>
       </c>
       <c r="I227">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J227" s="15">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K227">
         <v>0</v>
@@ -95766,10 +95766,10 @@
         <v>0</v>
       </c>
       <c r="I228">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J228" s="15">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K228">
         <v>0</v>
@@ -95848,7 +95848,7 @@
         <v>0</v>
       </c>
       <c r="I229">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J229" s="15">
         <v>75</v>
@@ -95921,7 +95921,7 @@
         <v>100</v>
       </c>
       <c r="F230">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -95930,7 +95930,7 @@
         <v>140</v>
       </c>
       <c r="I230">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J230">
         <v>0</v>
@@ -99320,12 +99320,12 @@
   <sheetPr/>
   <dimension ref="A1:AS30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="22488" windowHeight="9084" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$120</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$181</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$606</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$223</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$57</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15192" uniqueCount="2269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15406" uniqueCount="2279">
   <si>
     <t>cid</t>
   </si>
@@ -6742,9 +6742,30 @@
     <t>航母Χ级F型</t>
   </si>
   <si>
+    <t>02019</t>
+  </si>
+  <si>
+    <t>Takao[Fog]</t>
+  </si>
+  <si>
     <t>大型单装炮</t>
   </si>
   <si>
+    <t>000064</t>
+  </si>
+  <si>
+    <t>02020</t>
+  </si>
+  <si>
+    <t>Nagara[Fog]</t>
+  </si>
+  <si>
+    <t>02021</t>
+  </si>
+  <si>
+    <t>Fletcher-Class[Fog]</t>
+  </si>
+  <si>
     <t>小型副炮</t>
   </si>
   <si>
@@ -6833,6 +6854,15 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>MidPoint</t>
+  </si>
+  <si>
+    <t>NightBattle</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -6840,10 +6870,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -6875,7 +6905,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6890,9 +6920,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6903,16 +6956,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6933,79 +7033,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7027,7 +7057,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7039,55 +7213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7099,115 +7231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7248,32 +7278,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7302,6 +7313,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7317,6 +7337,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -7326,22 +7361,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7351,10 +7381,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7363,133 +7393,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7584,6 +7614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -18109,11 +18140,11 @@
   <dimension ref="A1:AC181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C182" sqref="C182"/>
+      <selection pane="bottomRight" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -34073,7 +34104,7 @@
   <dimension ref="A1:AA606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E178" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -78225,14 +78256,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD222"/>
+  <dimension ref="A1:AD225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F197" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F209" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H223" sqref="H223"/>
+      <selection pane="bottomRight" activeCell="A226" sqref="$A226:$XFD228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -94700,7 +94731,6 @@
       <c r="T211" t="s">
         <v>1788</v>
       </c>
-      <c r="U211"/>
       <c r="V211">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -94860,7 +94890,6 @@
       <c r="T213" t="s">
         <v>1799</v>
       </c>
-      <c r="U213"/>
       <c r="V213">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -95075,7 +95104,7 @@
         <v>99</v>
       </c>
       <c r="L216" s="15">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="M216">
         <v>83</v>
@@ -95105,7 +95134,7 @@
         <v>2225</v>
       </c>
       <c r="V216">
-        <f t="shared" ref="V216:V222" si="7">SUM(W216:Z216)</f>
+        <f t="shared" ref="V216:V228" si="7">SUM(W216:Z216)</f>
         <v>0</v>
       </c>
       <c r="W216">
@@ -95156,7 +95185,7 @@
         <v>108</v>
       </c>
       <c r="L217" s="15">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="M217">
         <v>60</v>
@@ -95318,7 +95347,7 @@
         <v>75</v>
       </c>
       <c r="L219" s="15">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="M219">
         <v>47</v>
@@ -95480,7 +95509,7 @@
         <v>0</v>
       </c>
       <c r="L221" s="15">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="M221">
         <v>48</v>
@@ -95607,9 +95636,255 @@
         <v>36</v>
       </c>
     </row>
+    <row r="223" customFormat="1" spans="1:27">
+      <c r="A223" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B223" t="s">
+        <v>72</v>
+      </c>
+      <c r="C223" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E223" s="14">
+        <v>95</v>
+      </c>
+      <c r="F223">
+        <v>280</v>
+      </c>
+      <c r="G223">
+        <v>134</v>
+      </c>
+      <c r="H223">
+        <v>106</v>
+      </c>
+      <c r="I223">
+        <v>155</v>
+      </c>
+      <c r="J223">
+        <v>95</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223" s="15">
+        <v>65</v>
+      </c>
+      <c r="M223">
+        <v>74</v>
+      </c>
+      <c r="N223">
+        <v>49</v>
+      </c>
+      <c r="O223">
+        <v>35</v>
+      </c>
+      <c r="P223">
+        <v>2</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223" t="s">
+        <v>2240</v>
+      </c>
+      <c r="S223" t="s">
+        <v>1868</v>
+      </c>
+      <c r="T223" t="s">
+        <v>1875</v>
+      </c>
+      <c r="U223" t="s">
+        <v>2224</v>
+      </c>
+      <c r="V223">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="W223">
+        <v>4</v>
+      </c>
+      <c r="X223">
+        <v>4</v>
+      </c>
+      <c r="Y223">
+        <v>4</v>
+      </c>
+      <c r="Z223">
+        <v>4</v>
+      </c>
+      <c r="AA223" s="39" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="224" customFormat="1" spans="1:26">
+      <c r="A224" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B224" t="s">
+        <v>117</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E224" s="14">
+        <v>95</v>
+      </c>
+      <c r="F224">
+        <v>140</v>
+      </c>
+      <c r="G224">
+        <v>96</v>
+      </c>
+      <c r="H224">
+        <v>98</v>
+      </c>
+      <c r="I224">
+        <v>104</v>
+      </c>
+      <c r="J224">
+        <v>88</v>
+      </c>
+      <c r="K224">
+        <v>100</v>
+      </c>
+      <c r="L224" s="15">
+        <v>73</v>
+      </c>
+      <c r="M224">
+        <v>76</v>
+      </c>
+      <c r="N224">
+        <v>54</v>
+      </c>
+      <c r="O224">
+        <v>35</v>
+      </c>
+      <c r="P224">
+        <v>2</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224" t="s">
+        <v>2240</v>
+      </c>
+      <c r="S224" t="s">
+        <v>1835</v>
+      </c>
+      <c r="T224" t="s">
+        <v>1875</v>
+      </c>
+      <c r="U224" t="s">
+        <v>2224</v>
+      </c>
+      <c r="V224">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="W224">
+        <v>2</v>
+      </c>
+      <c r="X224">
+        <v>2</v>
+      </c>
+      <c r="Y224">
+        <v>2</v>
+      </c>
+      <c r="Z224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" customFormat="1" spans="1:26">
+      <c r="A225" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B225" t="s">
+        <v>216</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E225" s="14">
+        <v>95</v>
+      </c>
+      <c r="F225">
+        <v>88</v>
+      </c>
+      <c r="G225">
+        <v>79</v>
+      </c>
+      <c r="H225">
+        <v>99</v>
+      </c>
+      <c r="I225">
+        <v>76</v>
+      </c>
+      <c r="J225">
+        <v>79</v>
+      </c>
+      <c r="K225">
+        <v>100</v>
+      </c>
+      <c r="L225" s="15">
+        <v>71</v>
+      </c>
+      <c r="M225">
+        <v>90</v>
+      </c>
+      <c r="N225">
+        <v>35</v>
+      </c>
+      <c r="O225">
+        <v>35</v>
+      </c>
+      <c r="P225">
+        <v>2</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225" t="s">
+        <v>2240</v>
+      </c>
+      <c r="S225" t="s">
+        <v>1851</v>
+      </c>
+      <c r="T225" t="s">
+        <v>2224</v>
+      </c>
+      <c r="U225" s="12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="V225">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AC221">
-    <sortState ref="A1:AC221">
+  <autoFilter ref="A1:AC223">
+    <sortState ref="A1:AC223">
       <sortCondition ref="A1:A202"/>
     </sortState>
     <extLst/>
@@ -95626,11 +95901,11 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
+      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -96113,7 +96388,7 @@
         <v>399</v>
       </c>
       <c r="C8" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="D8" t="s">
         <v>401</v>
@@ -96308,7 +96583,7 @@
         <v>483</v>
       </c>
       <c r="C11" t="s">
-        <v>2239</v>
+        <v>2246</v>
       </c>
       <c r="D11" t="s">
         <v>485</v>
@@ -96373,7 +96648,7 @@
         <v>483</v>
       </c>
       <c r="C12" t="s">
-        <v>2240</v>
+        <v>2247</v>
       </c>
       <c r="D12" t="s">
         <v>485</v>
@@ -97380,7 +97655,7 @@
         <v>379</v>
       </c>
       <c r="C28" t="s">
-        <v>2241</v>
+        <v>2248</v>
       </c>
       <c r="D28" t="s">
         <v>583</v>
@@ -97442,7 +97717,7 @@
         <v>379</v>
       </c>
       <c r="C29" t="s">
-        <v>2242</v>
+        <v>2249</v>
       </c>
       <c r="D29" t="s">
         <v>583</v>
@@ -97752,7 +98027,7 @@
         <v>395</v>
       </c>
       <c r="C34" t="s">
-        <v>2243</v>
+        <v>2250</v>
       </c>
       <c r="D34" t="s">
         <v>397</v>
@@ -97814,7 +98089,7 @@
         <v>395</v>
       </c>
       <c r="C35" t="s">
-        <v>2244</v>
+        <v>2251</v>
       </c>
       <c r="D35" t="s">
         <v>397</v>
@@ -97938,7 +98213,7 @@
         <v>616</v>
       </c>
       <c r="C37" t="s">
-        <v>2245</v>
+        <v>2252</v>
       </c>
       <c r="D37" t="s">
         <v>618</v>
@@ -98000,7 +98275,7 @@
         <v>376</v>
       </c>
       <c r="C38" t="s">
-        <v>2246</v>
+        <v>2253</v>
       </c>
       <c r="D38" t="s">
         <v>495</v>
@@ -98062,7 +98337,7 @@
         <v>376</v>
       </c>
       <c r="C39" t="s">
-        <v>2247</v>
+        <v>2254</v>
       </c>
       <c r="D39" t="s">
         <v>495</v>
@@ -98124,7 +98399,7 @@
         <v>376</v>
       </c>
       <c r="C40" t="s">
-        <v>2248</v>
+        <v>2255</v>
       </c>
       <c r="D40" t="s">
         <v>495</v>
@@ -98186,7 +98461,7 @@
         <v>376</v>
       </c>
       <c r="C41" t="s">
-        <v>2249</v>
+        <v>2256</v>
       </c>
       <c r="D41" t="s">
         <v>495</v>
@@ -98709,7 +98984,7 @@
         <v>976</v>
       </c>
       <c r="D52" t="s">
-        <v>2250</v>
+        <v>2257</v>
       </c>
       <c r="F52">
         <v>20</v>
@@ -98790,7 +99065,7 @@
         <v>1153</v>
       </c>
       <c r="D55" t="s">
-        <v>2250</v>
+        <v>2257</v>
       </c>
       <c r="F55">
         <v>18</v>
@@ -98939,14 +99214,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS10"/>
+  <dimension ref="A1:AS22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -98973,7 +99248,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>2251</v>
+        <v>2258</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -98982,13 +99257,13 @@
         <v>338</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2252</v>
+        <v>2259</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2253</v>
+        <v>2260</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>2254</v>
+        <v>2261</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -98997,7 +99272,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="9" t="s">
-        <v>2255</v>
+        <v>2262</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -99005,7 +99280,7 @@
       <c r="Q1" s="8"/>
       <c r="R1" s="11"/>
       <c r="S1" s="7" t="s">
-        <v>2256</v>
+        <v>2263</v>
       </c>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
@@ -99014,7 +99289,7 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="9" t="s">
-        <v>2257</v>
+        <v>2264</v>
       </c>
       <c r="AA1" s="8"/>
       <c r="AB1" s="8"/>
@@ -99022,7 +99297,7 @@
       <c r="AD1" s="8"/>
       <c r="AE1" s="11"/>
       <c r="AF1" s="7" t="s">
-        <v>2258</v>
+        <v>2265</v>
       </c>
       <c r="AG1" s="8"/>
       <c r="AH1" s="8"/>
@@ -99031,7 +99306,7 @@
       <c r="AK1" s="8"/>
       <c r="AL1" s="8"/>
       <c r="AM1" s="9" t="s">
-        <v>2259</v>
+        <v>2266</v>
       </c>
       <c r="AN1" s="8"/>
       <c r="AO1" s="8"/>
@@ -99039,7 +99314,7 @@
       <c r="AQ1" s="8"/>
       <c r="AR1" s="11"/>
       <c r="AS1" s="6" t="s">
-        <v>2260</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -99047,10 +99322,10 @@
         <v>1775</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2261</v>
+        <v>2268</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2262</v>
+        <v>2269</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -99157,10 +99432,10 @@
         <v>1778</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2263</v>
+        <v>2270</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -99270,7 +99545,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -99380,7 +99655,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -99484,10 +99759,10 @@
         <v>1789</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2265</v>
+        <v>2272</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -99594,10 +99869,10 @@
         <v>1793</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2266</v>
+        <v>2273</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -99704,10 +99979,10 @@
         <v>1797</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2267</v>
+        <v>2274</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -99814,10 +100089,10 @@
         <v>1800</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2268</v>
+        <v>2275</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -99924,10 +100199,10 @@
         <v>2043</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2265</v>
+        <v>2272</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -100069,6 +100344,1612 @@
       <c r="AR10" t="str">
         <f>IFERROR(VLOOKUP(AL10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>U-99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="10">
+        <f>IFERROR(VLOOKUP(G11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>IFERROR(VLOOKUP(H11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>IFERROR(VLOOKUP(I11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>IFERROR(VLOOKUP(J11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>IFERROR(VLOOKUP(K11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>IFERROR(VLOOKUP(L11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="10">
+        <f>IFERROR(VLOOKUP(T11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f>IFERROR(VLOOKUP(U11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f>IFERROR(VLOOKUP(V11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f>IFERROR(VLOOKUP(W11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f>IFERROR(VLOOKUP(X11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f>IFERROR(VLOOKUP(Y11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="10">
+        <f>IFERROR(VLOOKUP(AG11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <f>IFERROR(VLOOKUP(AH11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <f>IFERROR(VLOOKUP(AI11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <f>IFERROR(VLOOKUP(AJ11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <f>IFERROR(VLOOKUP(AK11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <f>IFERROR(VLOOKUP(AL11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="M12" s="10" t="str">
+        <f>IFERROR(VLOOKUP(G12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>雷巡Θ级Ⅲ型</v>
+      </c>
+      <c r="N12" t="str">
+        <f>IFERROR(VLOOKUP(H12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>雷巡Θ级Ⅲ型</v>
+      </c>
+      <c r="O12" t="str">
+        <f>IFERROR(VLOOKUP(I12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="P12" t="str">
+        <f>IFERROR(VLOOKUP(J12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>IFERROR(VLOOKUP(K12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="R12" t="str">
+        <f>IFERROR(VLOOKUP(L12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="S12" s="3">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Z12" s="10" t="str">
+        <f>IFERROR(VLOOKUP(T12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>雷巡Θ级Ⅲ型</v>
+      </c>
+      <c r="AA12" t="str">
+        <f>IFERROR(VLOOKUP(U12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>雷巡Θ级Ⅲ型</v>
+      </c>
+      <c r="AB12" t="str">
+        <f>IFERROR(VLOOKUP(V12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AC12" t="str">
+        <f>IFERROR(VLOOKUP(W12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AD12" t="str">
+        <f>IFERROR(VLOOKUP(X12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AE12" t="str">
+        <f>IFERROR(VLOOKUP(Y12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AM12" s="10" t="str">
+        <f>IFERROR(VLOOKUP(AG12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>雷巡Θ级Ⅲ型</v>
+      </c>
+      <c r="AN12" t="str">
+        <f>IFERROR(VLOOKUP(AH12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>雷巡Θ级Ⅲ型</v>
+      </c>
+      <c r="AO12" t="str">
+        <f>IFERROR(VLOOKUP(AI12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AP12" t="str">
+        <f>IFERROR(VLOOKUP(AJ12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AQ12" t="str">
+        <f>IFERROR(VLOOKUP(AK12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AR12" t="str">
+        <f>IFERROR(VLOOKUP(AL12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="10" t="str">
+        <f>IFERROR(VLOOKUP(G13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>雷巡Θ级Ⅲ型</v>
+      </c>
+      <c r="N13" t="str">
+        <f>IFERROR(VLOOKUP(H13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="O13" t="str">
+        <f>IFERROR(VLOOKUP(I13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="P13" t="str">
+        <f>IFERROR(VLOOKUP(J13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>IFERROR(VLOOKUP(K13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>潜艇Φ级Ⅲ型</v>
+      </c>
+      <c r="R13">
+        <f>IFERROR(VLOOKUP(L13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>4</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="10" t="str">
+        <f>IFERROR(VLOOKUP(T13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>雷巡Θ级Ⅲ型</v>
+      </c>
+      <c r="AA13" t="str">
+        <f>IFERROR(VLOOKUP(U13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AB13" t="str">
+        <f>IFERROR(VLOOKUP(V13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AC13" t="str">
+        <f>IFERROR(VLOOKUP(W13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AD13" t="str">
+        <f>IFERROR(VLOOKUP(X13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>潜艇Φ级Ⅲ型</v>
+      </c>
+      <c r="AE13">
+        <f>IFERROR(VLOOKUP(Y13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="10" t="str">
+        <f>IFERROR(VLOOKUP(AG13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>雷巡Θ级Ⅲ型</v>
+      </c>
+      <c r="AN13" t="str">
+        <f>IFERROR(VLOOKUP(AH13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AO13" t="str">
+        <f>IFERROR(VLOOKUP(AI13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AP13" t="str">
+        <f>IFERROR(VLOOKUP(AJ13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AQ13" t="str">
+        <f>IFERROR(VLOOKUP(AK13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>潜艇Φ级Ⅲ型</v>
+      </c>
+      <c r="AR13">
+        <f>IFERROR(VLOOKUP(AL13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="10">
+        <f>IFERROR(VLOOKUP(G14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>IFERROR(VLOOKUP(H14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>IFERROR(VLOOKUP(I14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>IFERROR(VLOOKUP(J14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f>IFERROR(VLOOKUP(K14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f>IFERROR(VLOOKUP(L14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="7"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="10">
+        <f>IFERROR(VLOOKUP(T14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f>IFERROR(VLOOKUP(U14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f>IFERROR(VLOOKUP(V14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f>IFERROR(VLOOKUP(W14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f>IFERROR(VLOOKUP(X14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f>IFERROR(VLOOKUP(Y14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="10">
+        <f>IFERROR(VLOOKUP(AG14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <f>IFERROR(VLOOKUP(AH14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <f>IFERROR(VLOOKUP(AI14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <f>IFERROR(VLOOKUP(AJ14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <f>IFERROR(VLOOKUP(AK14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <f>IFERROR(VLOOKUP(AL14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="M15" s="10" t="str">
+        <f>IFERROR(VLOOKUP(G15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="N15" t="str">
+        <f>IFERROR(VLOOKUP(H15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ι级Ⅳ型</v>
+      </c>
+      <c r="O15" t="str">
+        <f>IFERROR(VLOOKUP(I15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="P15" t="str">
+        <f>IFERROR(VLOOKUP(J15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>IFERROR(VLOOKUP(K15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="R15" t="str">
+        <f>IFERROR(VLOOKUP(L15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="S15" s="3">
+        <v>2</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Z15" s="10" t="str">
+        <f>IFERROR(VLOOKUP(T15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="AA15" t="str">
+        <f>IFERROR(VLOOKUP(U15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ι级Ⅳ型</v>
+      </c>
+      <c r="AB15" t="str">
+        <f>IFERROR(VLOOKUP(V15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AC15" t="str">
+        <f>IFERROR(VLOOKUP(W15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AD15" t="str">
+        <f>IFERROR(VLOOKUP(X15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AE15" t="str">
+        <f>IFERROR(VLOOKUP(Y15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AM15" s="10" t="str">
+        <f>IFERROR(VLOOKUP(AG15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="AN15" t="str">
+        <f>IFERROR(VLOOKUP(AH15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ι级Ⅳ型</v>
+      </c>
+      <c r="AO15" t="str">
+        <f>IFERROR(VLOOKUP(AI15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AP15" t="str">
+        <f>IFERROR(VLOOKUP(AJ15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AQ15" t="str">
+        <f>IFERROR(VLOOKUP(AK15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AR15" t="str">
+        <f>IFERROR(VLOOKUP(AL15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="M16" s="10" t="str">
+        <f>IFERROR(VLOOKUP(G16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="N16" t="str">
+        <f>IFERROR(VLOOKUP(H16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="O16" t="str">
+        <f>IFERROR(VLOOKUP(I16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="P16" t="str">
+        <f>IFERROR(VLOOKUP(J16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>IFERROR(VLOOKUP(K16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="R16" t="str">
+        <f>IFERROR(VLOOKUP(L16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="S16" s="3">
+        <v>2</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Z16" s="10" t="str">
+        <f>IFERROR(VLOOKUP(T16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="AA16" t="str">
+        <f>IFERROR(VLOOKUP(U16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="AB16" t="str">
+        <f>IFERROR(VLOOKUP(V16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AC16" t="str">
+        <f>IFERROR(VLOOKUP(W16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AD16" t="str">
+        <f>IFERROR(VLOOKUP(X16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AE16" t="str">
+        <f>IFERROR(VLOOKUP(Y16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AM16" s="10" t="str">
+        <f>IFERROR(VLOOKUP(AG16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="AN16" t="str">
+        <f>IFERROR(VLOOKUP(AH16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="AO16" t="str">
+        <f>IFERROR(VLOOKUP(AI16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AP16" t="str">
+        <f>IFERROR(VLOOKUP(AJ16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AQ16" t="str">
+        <f>IFERROR(VLOOKUP(AK16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AR16" t="str">
+        <f>IFERROR(VLOOKUP(AL16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="M17" s="10" t="str">
+        <f>IFERROR(VLOOKUP(G17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="N17" t="str">
+        <f>IFERROR(VLOOKUP(H17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="O17" t="str">
+        <f>IFERROR(VLOOKUP(I17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="P17" t="str">
+        <f>IFERROR(VLOOKUP(J17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>IFERROR(VLOOKUP(K17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="R17" t="str">
+        <f>IFERROR(VLOOKUP(L17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="M18" s="10" t="str">
+        <f>IFERROR(VLOOKUP(G18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="N18" t="str">
+        <f>IFERROR(VLOOKUP(H18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="O18" t="str">
+        <f>IFERROR(VLOOKUP(I18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="P18" t="str">
+        <f>IFERROR(VLOOKUP(J18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>IFERROR(VLOOKUP(K18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="R18" t="str">
+        <f>IFERROR(VLOOKUP(L18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="S18" s="3">
+        <v>2</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Z18" s="10" t="str">
+        <f>IFERROR(VLOOKUP(T18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="AA18" t="str">
+        <f>IFERROR(VLOOKUP(U18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="AB18" t="str">
+        <f>IFERROR(VLOOKUP(V18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AC18" t="str">
+        <f>IFERROR(VLOOKUP(W18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AD18" t="str">
+        <f>IFERROR(VLOOKUP(X18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AE18" t="str">
+        <f>IFERROR(VLOOKUP(Y18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AM18" s="10" t="str">
+        <f>IFERROR(VLOOKUP(AG18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="AN18" t="str">
+        <f>IFERROR(VLOOKUP(AH18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="AO18" t="str">
+        <f>IFERROR(VLOOKUP(AI18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AP18" t="str">
+        <f>IFERROR(VLOOKUP(AJ18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AQ18" t="str">
+        <f>IFERROR(VLOOKUP(AK18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AR18" t="str">
+        <f>IFERROR(VLOOKUP(AL18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="M19" s="10" t="str">
+        <f>IFERROR(VLOOKUP(G19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>补给Υ级Ⅳ型</v>
+      </c>
+      <c r="N19" t="str">
+        <f>IFERROR(VLOOKUP(H19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>补给Υ级Ⅳ型</v>
+      </c>
+      <c r="O19" t="str">
+        <f>IFERROR(VLOOKUP(I19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>补给Υ级Ⅳ型</v>
+      </c>
+      <c r="P19" t="str">
+        <f>IFERROR(VLOOKUP(J19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>补给Υ级Ⅲ型</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>IFERROR(VLOOKUP(K19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>补给Υ级Ⅲ型</v>
+      </c>
+      <c r="R19" t="str">
+        <f>IFERROR(VLOOKUP(L19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>补给Υ级Ⅲ型</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="M20" s="10" t="str">
+        <f>IFERROR(VLOOKUP(G20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Ψ级Ⅲ型</v>
+      </c>
+      <c r="N20" t="str">
+        <f>IFERROR(VLOOKUP(H20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="O20" t="str">
+        <f>IFERROR(VLOOKUP(I20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="P20" t="str">
+        <f>IFERROR(VLOOKUP(J20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="Q20" t="str">
+        <f>IFERROR(VLOOKUP(K20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="R20" t="str">
+        <f>IFERROR(VLOOKUP(L20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="S20" s="3">
+        <v>2</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Z20" s="10" t="str">
+        <f>IFERROR(VLOOKUP(T20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Ψ级Ⅲ型</v>
+      </c>
+      <c r="AA20" t="str">
+        <f>IFERROR(VLOOKUP(U20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AB20" t="str">
+        <f>IFERROR(VLOOKUP(V20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AC20" t="str">
+        <f>IFERROR(VLOOKUP(W20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AD20" t="str">
+        <f>IFERROR(VLOOKUP(X20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AE20" t="str">
+        <f>IFERROR(VLOOKUP(Y20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AM20" s="10" t="str">
+        <f>IFERROR(VLOOKUP(AG20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Ψ级Ⅲ型</v>
+      </c>
+      <c r="AN20" t="str">
+        <f>IFERROR(VLOOKUP(AH20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AO20" t="str">
+        <f>IFERROR(VLOOKUP(AI20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AP20" t="str">
+        <f>IFERROR(VLOOKUP(AJ20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AQ20" t="str">
+        <f>IFERROR(VLOOKUP(AK20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AR20" t="str">
+        <f>IFERROR(VLOOKUP(AL20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="M21" s="10" t="str">
+        <f>IFERROR(VLOOKUP(G21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Ψ级Ⅲ型</v>
+      </c>
+      <c r="N21" t="str">
+        <f>IFERROR(VLOOKUP(H21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Ψ级Ⅲ型</v>
+      </c>
+      <c r="O21" t="str">
+        <f>IFERROR(VLOOKUP(I21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="P21" t="str">
+        <f>IFERROR(VLOOKUP(J21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>IFERROR(VLOOKUP(K21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="R21" t="str">
+        <f>IFERROR(VLOOKUP(L21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="S21" s="3">
+        <v>2</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Z21" s="10" t="str">
+        <f>IFERROR(VLOOKUP(T21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Ψ级Ⅲ型</v>
+      </c>
+      <c r="AA21" t="str">
+        <f>IFERROR(VLOOKUP(U21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Ψ级Ⅲ型</v>
+      </c>
+      <c r="AB21" t="str">
+        <f>IFERROR(VLOOKUP(V21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AC21" t="str">
+        <f>IFERROR(VLOOKUP(W21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AD21" t="str">
+        <f>IFERROR(VLOOKUP(X21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AE21" t="str">
+        <f>IFERROR(VLOOKUP(Y21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AM21" s="10" t="str">
+        <f>IFERROR(VLOOKUP(AG21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Ψ级Ⅲ型</v>
+      </c>
+      <c r="AN21" t="str">
+        <f>IFERROR(VLOOKUP(AH21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Ψ级Ⅲ型</v>
+      </c>
+      <c r="AO21" t="str">
+        <f>IFERROR(VLOOKUP(AI21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AP21" t="str">
+        <f>IFERROR(VLOOKUP(AJ21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AQ21" t="str">
+        <f>IFERROR(VLOOKUP(AK21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+      <c r="AR21" t="str">
+        <f>IFERROR(VLOOKUP(AL21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅲ型</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="M22" s="10" t="str">
+        <f>IFERROR(VLOOKUP(G22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Takao[Fog]</v>
+      </c>
+      <c r="N22" t="str">
+        <f>IFERROR(VLOOKUP(H22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Nagara[Fog]</v>
+      </c>
+      <c r="O22" t="str">
+        <f>IFERROR(VLOOKUP(I22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="P22" t="str">
+        <f>IFERROR(VLOOKUP(J22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="Q22" t="str">
+        <f>IFERROR(VLOOKUP(K22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="R22" t="str">
+        <f>IFERROR(VLOOKUP(L22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="Z22" s="10" t="str">
+        <f>IFERROR(VLOOKUP(T22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Takao[Fog]</v>
+      </c>
+      <c r="AA22" t="str">
+        <f>IFERROR(VLOOKUP(U22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Nagara[Fog]</v>
+      </c>
+      <c r="AB22" t="str">
+        <f>IFERROR(VLOOKUP(V22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AC22" t="str">
+        <f>IFERROR(VLOOKUP(W22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AD22" t="str">
+        <f>IFERROR(VLOOKUP(X22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AE22" t="str">
+        <f>IFERROR(VLOOKUP(Y22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="AM22" s="10" t="str">
+        <f>IFERROR(VLOOKUP(AG22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Takao[Fog]</v>
+      </c>
+      <c r="AN22" t="str">
+        <f>IFERROR(VLOOKUP(AH22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Nagara[Fog]</v>
+      </c>
+      <c r="AO22" t="str">
+        <f>IFERROR(VLOOKUP(AI22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AP22" t="str">
+        <f>IFERROR(VLOOKUP(AJ22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AQ22" t="str">
+        <f>IFERROR(VLOOKUP(AK22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AR22" t="str">
+        <f>IFERROR(VLOOKUP(AL22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
       </c>
     </row>
   </sheetData>
@@ -100080,18 +101961,198 @@
     <mergeCell ref="AF1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
   </mergeCells>
+  <conditionalFormatting sqref="M11:R11">
+    <cfRule type="cellIs" dxfId="10" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:AE11">
+    <cfRule type="cellIs" dxfId="10" priority="44" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM11:AR11">
+    <cfRule type="cellIs" dxfId="10" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:R12">
+    <cfRule type="cellIs" dxfId="10" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z12:AE12">
+    <cfRule type="cellIs" dxfId="10" priority="38" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12:AR12">
+    <cfRule type="cellIs" dxfId="10" priority="37" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:R13">
+    <cfRule type="cellIs" dxfId="10" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z13:AE13">
+    <cfRule type="cellIs" dxfId="10" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM13:AR13">
+    <cfRule type="cellIs" dxfId="10" priority="32" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:R14">
+    <cfRule type="cellIs" dxfId="10" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z14:AE14">
+    <cfRule type="cellIs" dxfId="10" priority="30" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14:AR14">
+    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:R15">
+    <cfRule type="cellIs" dxfId="10" priority="28" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z15:AE15">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM15:AR15">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:R16">
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z16:AE16">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM16:AR16">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:R17">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z17:AE17">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM17:AR17">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:R18">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z18:AE18">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM18:AR18">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:R19">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z19:AE19">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM19:AR19">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:R20">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z20:AE20">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM20:AR20">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:R21">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21:AE21">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM21:AR21">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22:R22">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22:AE22">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM22:AR22">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M2:R10">
-    <cfRule type="cellIs" dxfId="10" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="156" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AE10">
-    <cfRule type="cellIs" dxfId="10" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="155" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM2:AR10">
-    <cfRule type="cellIs" dxfId="10" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="22488" windowHeight="9347" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -13,12 +13,13 @@
     <sheet name="舰船数据-深海" sheetId="2" r:id="rId4"/>
     <sheet name="装备数据-深海" sheetId="5" r:id="rId5"/>
     <sheet name="海图" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$125</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$183</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$607</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$232</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$59</definedName>
   </definedNames>
   <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15501" uniqueCount="2301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15586" uniqueCount="2306">
   <si>
     <t>cid</t>
   </si>
@@ -6841,6 +6842,18 @@
     <t>补给Ⅱ型[Fog]</t>
   </si>
   <si>
+    <t>02024</t>
+  </si>
+  <si>
+    <t>Kirishima&amp;Haruna[Fog]</t>
+  </si>
+  <si>
+    <t>02025</t>
+  </si>
+  <si>
+    <t>Maya[Fog]</t>
+  </si>
+  <si>
     <t>小型副炮</t>
   </si>
   <si>
@@ -6929,6 +6942,9 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -6937,9 +6953,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -6970,9 +6986,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6994,15 +7054,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7015,16 +7069,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7038,31 +7100,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7076,39 +7123,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7123,7 +7139,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7135,175 +7313,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7344,15 +7360,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7370,10 +7377,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7394,11 +7399,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7407,7 +7418,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7427,17 +7438,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7447,10 +7463,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7459,133 +7475,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8060,7 +8076,7 @@
   <sheetPr/>
   <dimension ref="A1:AC125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D103" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -18230,7 +18246,6 @@
       <c r="AA121">
         <v>104981</v>
       </c>
-      <c r="AB121"/>
       <c r="AC121"/>
     </row>
     <row r="122" spans="1:26">
@@ -18658,11 +18673,11 @@
   <dimension ref="A1:AC183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M163" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="Q170" sqref="Q170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -78974,14 +78989,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD230"/>
+  <dimension ref="A1:AD232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="S202" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F213" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="$A77:$XFD77"/>
+      <selection pane="bottomRight" activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -96380,7 +96395,7 @@
         <v>106</v>
       </c>
       <c r="I223">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J223">
         <v>95</v>
@@ -96609,7 +96624,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="226" customFormat="1" spans="1:27">
+    <row r="226" customFormat="1" spans="1:29">
       <c r="A226" s="1" t="s">
         <v>2258</v>
       </c>
@@ -96629,28 +96644,28 @@
         <v>360</v>
       </c>
       <c r="G226">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J226">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K226">
         <v>0</v>
       </c>
       <c r="L226" s="17">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M226">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N226">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O226">
         <v>30</v>
@@ -96671,7 +96686,7 @@
         <v>1886</v>
       </c>
       <c r="U226" t="s">
-        <v>2235</v>
+        <v>1973</v>
       </c>
       <c r="V226">
         <f t="shared" si="7"/>
@@ -96692,8 +96707,11 @@
       <c r="AA226" s="39" t="s">
         <v>2260</v>
       </c>
-    </row>
-    <row r="227" customFormat="1" spans="1:27">
+      <c r="AC226" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="227" customFormat="1" spans="1:29">
       <c r="A227" s="1" t="s">
         <v>2261</v>
       </c>
@@ -96755,7 +96773,7 @@
         <v>1886</v>
       </c>
       <c r="U227" t="s">
-        <v>2235</v>
+        <v>1973</v>
       </c>
       <c r="V227">
         <f t="shared" si="7"/>
@@ -96775,6 +96793,9 @@
       </c>
       <c r="AA227" s="39" t="s">
         <v>2260</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>2253</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -97007,7 +97028,7 @@
         <v>1791</v>
       </c>
       <c r="V230">
-        <f>SUM(W230:Z230)</f>
+        <f t="shared" ref="V230:V232" si="8">SUM(W230:Z230)</f>
         <v>0</v>
       </c>
       <c r="W230">
@@ -97026,9 +97047,183 @@
         <v>2253</v>
       </c>
     </row>
+    <row r="231" customFormat="1" spans="1:29">
+      <c r="A231" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B231" t="s">
+        <v>37</v>
+      </c>
+      <c r="C231" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E231" s="16">
+        <v>100</v>
+      </c>
+      <c r="F231">
+        <v>660</v>
+      </c>
+      <c r="G231">
+        <v>360</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>180</v>
+      </c>
+      <c r="J231">
+        <v>150</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231" s="17">
+        <v>74</v>
+      </c>
+      <c r="M231">
+        <v>46</v>
+      </c>
+      <c r="N231">
+        <v>32</v>
+      </c>
+      <c r="O231">
+        <v>30</v>
+      </c>
+      <c r="P231">
+        <v>4</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231" t="s">
+        <v>1889</v>
+      </c>
+      <c r="S231" t="s">
+        <v>1889</v>
+      </c>
+      <c r="T231" t="s">
+        <v>1886</v>
+      </c>
+      <c r="U231" t="s">
+        <v>1973</v>
+      </c>
+      <c r="V231">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231" s="39" t="s">
+        <v>2260</v>
+      </c>
+      <c r="AC231" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="232" customFormat="1" spans="1:29">
+      <c r="A232" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B232" t="s">
+        <v>72</v>
+      </c>
+      <c r="C232" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E232" s="16">
+        <v>100</v>
+      </c>
+      <c r="F232">
+        <v>280</v>
+      </c>
+      <c r="G232">
+        <v>134</v>
+      </c>
+      <c r="H232">
+        <v>106</v>
+      </c>
+      <c r="I232">
+        <v>170</v>
+      </c>
+      <c r="J232">
+        <v>95</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232" s="17">
+        <v>68</v>
+      </c>
+      <c r="M232">
+        <v>77</v>
+      </c>
+      <c r="N232">
+        <v>45</v>
+      </c>
+      <c r="O232">
+        <v>35</v>
+      </c>
+      <c r="P232">
+        <v>2</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232" t="s">
+        <v>2251</v>
+      </c>
+      <c r="S232" t="s">
+        <v>1879</v>
+      </c>
+      <c r="T232" t="s">
+        <v>1886</v>
+      </c>
+      <c r="U232" t="s">
+        <v>1973</v>
+      </c>
+      <c r="V232">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="W232">
+        <v>4</v>
+      </c>
+      <c r="X232">
+        <v>4</v>
+      </c>
+      <c r="Y232">
+        <v>4</v>
+      </c>
+      <c r="Z232">
+        <v>4</v>
+      </c>
+      <c r="AA232" s="39" t="s">
+        <v>2252</v>
+      </c>
+      <c r="AC232" t="s">
+        <v>2253</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AC229">
-    <sortState ref="A1:AC229">
+  <autoFilter ref="A1:AC232">
+    <sortState ref="A1:AC232">
       <sortCondition ref="A1:A202"/>
     </sortState>
     <extLst/>
@@ -97045,11 +97240,11 @@
   <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -97727,7 +97922,7 @@
         <v>491</v>
       </c>
       <c r="C11" t="s">
-        <v>2271</v>
+        <v>2275</v>
       </c>
       <c r="D11" t="s">
         <v>493</v>
@@ -97792,7 +97987,7 @@
         <v>491</v>
       </c>
       <c r="C12" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="D12" t="s">
         <v>493</v>
@@ -98799,7 +98994,7 @@
         <v>387</v>
       </c>
       <c r="C28" t="s">
-        <v>2273</v>
+        <v>2277</v>
       </c>
       <c r="D28" t="s">
         <v>591</v>
@@ -98861,7 +99056,7 @@
         <v>387</v>
       </c>
       <c r="C29" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
       <c r="D29" t="s">
         <v>591</v>
@@ -99171,7 +99366,7 @@
         <v>403</v>
       </c>
       <c r="C34" t="s">
-        <v>2275</v>
+        <v>2279</v>
       </c>
       <c r="D34" t="s">
         <v>405</v>
@@ -99233,7 +99428,7 @@
         <v>403</v>
       </c>
       <c r="C35" t="s">
-        <v>2276</v>
+        <v>2280</v>
       </c>
       <c r="D35" t="s">
         <v>405</v>
@@ -99357,7 +99552,7 @@
         <v>624</v>
       </c>
       <c r="C37" t="s">
-        <v>2277</v>
+        <v>2281</v>
       </c>
       <c r="D37" t="s">
         <v>626</v>
@@ -99419,7 +99614,7 @@
         <v>384</v>
       </c>
       <c r="C38" t="s">
-        <v>2278</v>
+        <v>2282</v>
       </c>
       <c r="D38" t="s">
         <v>503</v>
@@ -99481,7 +99676,7 @@
         <v>384</v>
       </c>
       <c r="C39" t="s">
-        <v>2279</v>
+        <v>2283</v>
       </c>
       <c r="D39" t="s">
         <v>503</v>
@@ -99543,7 +99738,7 @@
         <v>384</v>
       </c>
       <c r="C40" t="s">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="D40" t="s">
         <v>503</v>
@@ -99605,7 +99800,7 @@
         <v>384</v>
       </c>
       <c r="C41" t="s">
-        <v>2281</v>
+        <v>2285</v>
       </c>
       <c r="D41" t="s">
         <v>503</v>
@@ -100128,7 +100323,7 @@
         <v>984</v>
       </c>
       <c r="D52" t="s">
-        <v>2282</v>
+        <v>2286</v>
       </c>
       <c r="F52">
         <v>20</v>
@@ -100209,7 +100404,7 @@
         <v>1161</v>
       </c>
       <c r="D55" t="s">
-        <v>2282</v>
+        <v>2286</v>
       </c>
       <c r="F55">
         <v>18</v>
@@ -100497,14 +100692,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS19"/>
+  <dimension ref="A1:AS22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -100531,7 +100726,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>2283</v>
+        <v>2287</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -100540,13 +100735,13 @@
         <v>346</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2284</v>
+        <v>2288</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2285</v>
+        <v>2289</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -100555,7 +100750,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="9" t="s">
-        <v>2287</v>
+        <v>2291</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -100563,7 +100758,7 @@
       <c r="Q1" s="8"/>
       <c r="R1" s="11"/>
       <c r="S1" s="7" t="s">
-        <v>2288</v>
+        <v>2292</v>
       </c>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
@@ -100572,7 +100767,7 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="9" t="s">
-        <v>2289</v>
+        <v>2293</v>
       </c>
       <c r="AA1" s="8"/>
       <c r="AB1" s="8"/>
@@ -100580,7 +100775,7 @@
       <c r="AD1" s="8"/>
       <c r="AE1" s="11"/>
       <c r="AF1" s="7" t="s">
-        <v>2290</v>
+        <v>2294</v>
       </c>
       <c r="AG1" s="8"/>
       <c r="AH1" s="8"/>
@@ -100589,7 +100784,7 @@
       <c r="AK1" s="8"/>
       <c r="AL1" s="8"/>
       <c r="AM1" s="9" t="s">
-        <v>2291</v>
+        <v>2295</v>
       </c>
       <c r="AN1" s="8"/>
       <c r="AO1" s="8"/>
@@ -100597,7 +100792,7 @@
       <c r="AQ1" s="8"/>
       <c r="AR1" s="11"/>
       <c r="AS1" s="6" t="s">
-        <v>2292</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -100605,10 +100800,10 @@
         <v>1786</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -100715,10 +100910,10 @@
         <v>1789</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -100828,7 +101023,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -100938,7 +101133,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -101042,10 +101237,10 @@
         <v>1800</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -101152,10 +101347,10 @@
         <v>1804</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -101262,10 +101457,10 @@
         <v>1808</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2299</v>
+        <v>2303</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -101372,10 +101567,10 @@
         <v>1811</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>2300</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2296</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -101482,10 +101677,10 @@
         <v>2054</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -101634,10 +101829,10 @@
         <v>2223</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -101744,10 +101939,10 @@
         <v>2225</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -101896,10 +102091,10 @@
         <v>2227</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -102051,7 +102246,7 @@
         <v>136</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -102200,10 +102395,10 @@
         <v>2231</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2299</v>
+        <v>2303</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -102224,7 +102419,7 @@
         <v>2002</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>1965</v>
@@ -102246,7 +102441,7 @@
       </c>
       <c r="P15" t="str">
         <f>IFERROR(VLOOKUP(J15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>重巡Ω级Ⅱ型</v>
+        <v>轻巡ei级Ⅲ型</v>
       </c>
       <c r="Q15" t="str">
         <f>IFERROR(VLOOKUP(K15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -102269,7 +102464,7 @@
         <v>2002</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>1965</v>
@@ -102291,7 +102486,7 @@
       </c>
       <c r="AC15" t="str">
         <f>IFERROR(VLOOKUP(W15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>重巡Ω级Ⅱ型</v>
+        <v>轻巡ei级Ⅲ型</v>
       </c>
       <c r="AD15" t="str">
         <f>IFERROR(VLOOKUP(X15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -102314,7 +102509,7 @@
         <v>2002</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>1965</v>
@@ -102336,7 +102531,7 @@
       </c>
       <c r="AP15" t="str">
         <f>IFERROR(VLOOKUP(AJ15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>重巡Ω级Ⅱ型</v>
+        <v>轻巡ei级Ⅲ型</v>
       </c>
       <c r="AQ15" t="str">
         <f>IFERROR(VLOOKUP(AK15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -102355,7 +102550,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
@@ -102507,7 +102702,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -102519,136 +102714,136 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>2269</v>
+        <v>1980</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>2269</v>
+        <v>1980</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1875</v>
+        <v>1978</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>2010</v>
+        <v>1978</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1965</v>
+        <v>1976</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>1965</v>
+        <v>1976</v>
       </c>
       <c r="M17" s="10" t="str">
         <f>IFERROR(VLOOKUP(G17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>补给Ⅱ型[Fog]</v>
+        <v>潜艇Φ级Ⅳ型</v>
       </c>
       <c r="N17" t="str">
         <f>IFERROR(VLOOKUP(H17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>补给Ⅱ型[Fog]</v>
+        <v>潜艇Φ级Ⅳ型</v>
       </c>
       <c r="O17" t="str">
         <f>IFERROR(VLOOKUP(I17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>轻母Ξ级Ⅳ型</v>
+        <v>潜艇Φ级Ⅲ型</v>
       </c>
       <c r="P17" t="str">
         <f>IFERROR(VLOOKUP(J17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>轻巡ei级Ⅲ型</v>
+        <v>潜艇Φ级Ⅲ型</v>
       </c>
       <c r="Q17" t="str">
         <f>IFERROR(VLOOKUP(K17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>驱逐Τ级Ⅱ型</v>
+        <v>潜艇Φ级Ⅱ型</v>
       </c>
       <c r="R17" t="str">
         <f>IFERROR(VLOOKUP(L17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>驱逐Τ级Ⅱ型</v>
+        <v>潜艇Φ级Ⅱ型</v>
       </c>
       <c r="S17" s="3">
         <v>2</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>2269</v>
+        <v>1980</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>2269</v>
+        <v>1978</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>1875</v>
+        <v>1978</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>2010</v>
+        <v>1978</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>1965</v>
+        <v>1976</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>1965</v>
+        <v>1976</v>
       </c>
       <c r="Z17" s="10" t="str">
         <f>IFERROR(VLOOKUP(T17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>补给Ⅱ型[Fog]</v>
+        <v>潜艇Φ级Ⅳ型</v>
       </c>
       <c r="AA17" t="str">
         <f>IFERROR(VLOOKUP(U17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>补给Ⅱ型[Fog]</v>
+        <v>潜艇Φ级Ⅲ型</v>
       </c>
       <c r="AB17" t="str">
         <f>IFERROR(VLOOKUP(V17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>轻母Ξ级Ⅳ型</v>
+        <v>潜艇Φ级Ⅲ型</v>
       </c>
       <c r="AC17" t="str">
         <f>IFERROR(VLOOKUP(W17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>轻巡ei级Ⅲ型</v>
+        <v>潜艇Φ级Ⅲ型</v>
       </c>
       <c r="AD17" t="str">
         <f>IFERROR(VLOOKUP(X17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>驱逐Τ级Ⅱ型</v>
+        <v>潜艇Φ级Ⅱ型</v>
       </c>
       <c r="AE17" t="str">
         <f>IFERROR(VLOOKUP(Y17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>驱逐Τ级Ⅱ型</v>
+        <v>潜艇Φ级Ⅱ型</v>
       </c>
       <c r="AF17" s="3">
         <v>4</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>2269</v>
+        <v>1980</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>2269</v>
+        <v>1978</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>1875</v>
+        <v>1978</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>2010</v>
+        <v>1978</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>1965</v>
+        <v>1976</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>1965</v>
+        <v>1976</v>
       </c>
       <c r="AM17" s="10" t="str">
         <f>IFERROR(VLOOKUP(AG17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>补给Ⅱ型[Fog]</v>
+        <v>潜艇Φ级Ⅳ型</v>
       </c>
       <c r="AN17" t="str">
         <f>IFERROR(VLOOKUP(AH17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>补给Ⅱ型[Fog]</v>
+        <v>潜艇Φ级Ⅲ型</v>
       </c>
       <c r="AO17" t="str">
         <f>IFERROR(VLOOKUP(AI17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>轻母Ξ级Ⅳ型</v>
+        <v>潜艇Φ级Ⅲ型</v>
       </c>
       <c r="AP17" t="str">
         <f>IFERROR(VLOOKUP(AJ17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>轻巡ei级Ⅲ型</v>
+        <v>潜艇Φ级Ⅲ型</v>
       </c>
       <c r="AQ17" t="str">
         <f>IFERROR(VLOOKUP(AK17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>驱逐Τ级Ⅱ型</v>
+        <v>潜艇Φ级Ⅱ型</v>
       </c>
       <c r="AR17" t="str">
         <f>IFERROR(VLOOKUP(AL17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>驱逐Τ级Ⅱ型</v>
+        <v>潜艇Φ级Ⅱ型</v>
       </c>
     </row>
     <row r="18" spans="1:44">
@@ -102659,7 +102854,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -102680,7 +102875,7 @@
         <v>2002</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>1965</v>
@@ -102702,7 +102897,7 @@
       </c>
       <c r="P18" t="str">
         <f>IFERROR(VLOOKUP(J18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>重巡Ω级Ⅱ型</v>
+        <v>轻巡ei级Ⅲ型</v>
       </c>
       <c r="Q18" t="str">
         <f>IFERROR(VLOOKUP(K18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -102725,7 +102920,7 @@
         <v>2002</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>1965</v>
@@ -102747,7 +102942,7 @@
       </c>
       <c r="AC18" t="str">
         <f>IFERROR(VLOOKUP(W18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>重巡Ω级Ⅱ型</v>
+        <v>轻巡ei级Ⅲ型</v>
       </c>
       <c r="AD18" t="str">
         <f>IFERROR(VLOOKUP(X18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -102770,7 +102965,7 @@
         <v>2002</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>1965</v>
@@ -102792,7 +102987,7 @@
       </c>
       <c r="AP18" t="str">
         <f>IFERROR(VLOOKUP(AJ18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>重巡Ω级Ⅱ型</v>
+        <v>轻巡ei级Ⅲ型</v>
       </c>
       <c r="AQ18" t="str">
         <f>IFERROR(VLOOKUP(AK18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -102808,13 +103003,13 @@
         <v>2241</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>2296</v>
-      </c>
       <c r="D19" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -102823,135 +103018,591 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>2249</v>
+        <v>2263</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>2254</v>
+        <v>2263</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>2256</v>
+        <v>2267</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>2256</v>
+        <v>2267</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>2256</v>
+        <v>1965</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>2256</v>
+        <v>1965</v>
       </c>
       <c r="M19" s="10" t="str">
         <f>IFERROR(VLOOKUP(G19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Takao[Fog]</v>
+        <v>驱逐Ⅱ型改[Fog]</v>
       </c>
       <c r="N19" t="str">
         <f>IFERROR(VLOOKUP(H19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Nagara[Fog]</v>
+        <v>驱逐Ⅱ型改[Fog]</v>
       </c>
       <c r="O19" t="str">
         <f>IFERROR(VLOOKUP(I19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Fletcher-Class[Fog]</v>
+        <v>驱逐Ⅱ型[Fog]</v>
       </c>
       <c r="P19" t="str">
         <f>IFERROR(VLOOKUP(J19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Fletcher-Class[Fog]</v>
+        <v>驱逐Ⅱ型[Fog]</v>
       </c>
       <c r="Q19" t="str">
         <f>IFERROR(VLOOKUP(K19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Fletcher-Class[Fog]</v>
+        <v>驱逐Τ级Ⅱ型</v>
       </c>
       <c r="R19" t="str">
         <f>IFERROR(VLOOKUP(L19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Fletcher-Class[Fog]</v>
+        <v>驱逐Τ级Ⅱ型</v>
       </c>
       <c r="S19" s="3">
         <v>2</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>2249</v>
+        <v>2263</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>2254</v>
+        <v>2263</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>2256</v>
+        <v>2267</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>2256</v>
+        <v>2267</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>2256</v>
+        <v>1965</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>2256</v>
+        <v>1965</v>
       </c>
       <c r="Z19" s="10" t="str">
         <f>IFERROR(VLOOKUP(T19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Takao[Fog]</v>
+        <v>驱逐Ⅱ型改[Fog]</v>
       </c>
       <c r="AA19" t="str">
         <f>IFERROR(VLOOKUP(U19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Nagara[Fog]</v>
+        <v>驱逐Ⅱ型改[Fog]</v>
       </c>
       <c r="AB19" t="str">
         <f>IFERROR(VLOOKUP(V19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Fletcher-Class[Fog]</v>
+        <v>驱逐Ⅱ型[Fog]</v>
       </c>
       <c r="AC19" t="str">
         <f>IFERROR(VLOOKUP(W19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Fletcher-Class[Fog]</v>
+        <v>驱逐Ⅱ型[Fog]</v>
       </c>
       <c r="AD19" t="str">
         <f>IFERROR(VLOOKUP(X19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Fletcher-Class[Fog]</v>
+        <v>驱逐Τ级Ⅱ型</v>
       </c>
       <c r="AE19" t="str">
         <f>IFERROR(VLOOKUP(Y19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Fletcher-Class[Fog]</v>
+        <v>驱逐Τ级Ⅱ型</v>
       </c>
       <c r="AF19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>2249</v>
+        <v>2263</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>2254</v>
+        <v>2263</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>2256</v>
+        <v>2267</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>2256</v>
+        <v>2267</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>2256</v>
+        <v>1965</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>2256</v>
+        <v>1965</v>
       </c>
       <c r="AM19" s="10" t="str">
         <f>IFERROR(VLOOKUP(AG19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Takao[Fog]</v>
+        <v>驱逐Ⅱ型改[Fog]</v>
       </c>
       <c r="AN19" t="str">
         <f>IFERROR(VLOOKUP(AH19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Nagara[Fog]</v>
+        <v>驱逐Ⅱ型改[Fog]</v>
       </c>
       <c r="AO19" t="str">
         <f>IFERROR(VLOOKUP(AI19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Fletcher-Class[Fog]</v>
+        <v>驱逐Ⅱ型[Fog]</v>
       </c>
       <c r="AP19" t="str">
         <f>IFERROR(VLOOKUP(AJ19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Fletcher-Class[Fog]</v>
+        <v>驱逐Ⅱ型[Fog]</v>
       </c>
       <c r="AQ19" t="str">
         <f>IFERROR(VLOOKUP(AK19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Fletcher-Class[Fog]</v>
+        <v>驱逐Τ级Ⅱ型</v>
       </c>
       <c r="AR19" t="str">
         <f>IFERROR(VLOOKUP(AL19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅱ型</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="M20" s="10" t="str">
+        <f>IFERROR(VLOOKUP(G20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>补给Ⅱ型[Fog]</v>
+      </c>
+      <c r="N20" t="str">
+        <f>IFERROR(VLOOKUP(H20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="O20" t="str">
+        <f>IFERROR(VLOOKUP(I20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅲ型</v>
+      </c>
+      <c r="P20" t="str">
+        <f>IFERROR(VLOOKUP(J20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="Q20" t="str">
+        <f>IFERROR(VLOOKUP(K20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅱ型</v>
+      </c>
+      <c r="R20" t="str">
+        <f>IFERROR(VLOOKUP(L20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅱ型</v>
+      </c>
+      <c r="S20" s="3">
+        <v>2</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="Z20" s="10" t="str">
+        <f>IFERROR(VLOOKUP(T20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>补给Ⅱ型[Fog]</v>
+      </c>
+      <c r="AA20" t="str">
+        <f>IFERROR(VLOOKUP(U20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="AB20" t="str">
+        <f>IFERROR(VLOOKUP(V20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅲ型</v>
+      </c>
+      <c r="AC20" t="str">
+        <f>IFERROR(VLOOKUP(W20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="AD20" t="str">
+        <f>IFERROR(VLOOKUP(X20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅱ型</v>
+      </c>
+      <c r="AE20" t="str">
+        <f>IFERROR(VLOOKUP(Y20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅱ型</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AM20" s="10" t="str">
+        <f>IFERROR(VLOOKUP(AG20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>补给Ⅱ型[Fog]</v>
+      </c>
+      <c r="AN20" t="str">
+        <f>IFERROR(VLOOKUP(AH20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="AO20" t="str">
+        <f>IFERROR(VLOOKUP(AI20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅲ型</v>
+      </c>
+      <c r="AP20" t="str">
+        <f>IFERROR(VLOOKUP(AJ20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="AQ20" t="str">
+        <f>IFERROR(VLOOKUP(AK20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅱ型</v>
+      </c>
+      <c r="AR20" t="str">
+        <f>IFERROR(VLOOKUP(AL20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅱ型</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="M21" s="10" t="str">
+        <f>IFERROR(VLOOKUP(G21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>补给Ⅱ型[Fog]</v>
+      </c>
+      <c r="N21" t="str">
+        <f>IFERROR(VLOOKUP(H21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅳ型</v>
+      </c>
+      <c r="O21" t="str">
+        <f>IFERROR(VLOOKUP(I21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="P21" t="str">
+        <f>IFERROR(VLOOKUP(J21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>IFERROR(VLOOKUP(K21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅱ型</v>
+      </c>
+      <c r="R21" t="str">
+        <f>IFERROR(VLOOKUP(L21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅱ型</v>
+      </c>
+      <c r="S21" s="3">
+        <v>2</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="Z21" s="10" t="str">
+        <f>IFERROR(VLOOKUP(T21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>补给Ⅱ型[Fog]</v>
+      </c>
+      <c r="AA21" t="str">
+        <f>IFERROR(VLOOKUP(U21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅳ型</v>
+      </c>
+      <c r="AB21" t="str">
+        <f>IFERROR(VLOOKUP(V21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="AC21" t="str">
+        <f>IFERROR(VLOOKUP(W21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AD21" t="str">
+        <f>IFERROR(VLOOKUP(X21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅱ型</v>
+      </c>
+      <c r="AE21" t="str">
+        <f>IFERROR(VLOOKUP(Y21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅱ型</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AM21" s="10" t="str">
+        <f>IFERROR(VLOOKUP(AG21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>补给Ⅱ型[Fog]</v>
+      </c>
+      <c r="AN21" t="str">
+        <f>IFERROR(VLOOKUP(AH21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅳ型</v>
+      </c>
+      <c r="AO21" t="str">
+        <f>IFERROR(VLOOKUP(AI21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="AP21" t="str">
+        <f>IFERROR(VLOOKUP(AJ21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅲ型</v>
+      </c>
+      <c r="AQ21" t="str">
+        <f>IFERROR(VLOOKUP(AK21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅱ型</v>
+      </c>
+      <c r="AR21" t="str">
+        <f>IFERROR(VLOOKUP(AL21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅱ型</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="M22" s="10" t="str">
+        <f>IFERROR(VLOOKUP(G22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Takao[Fog]</v>
+      </c>
+      <c r="N22" t="str">
+        <f>IFERROR(VLOOKUP(H22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Nagara[Fog]</v>
+      </c>
+      <c r="O22" t="str">
+        <f>IFERROR(VLOOKUP(I22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="P22" t="str">
+        <f>IFERROR(VLOOKUP(J22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="Q22" t="str">
+        <f>IFERROR(VLOOKUP(K22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="R22" t="str">
+        <f>IFERROR(VLOOKUP(L22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="Z22" s="10" t="str">
+        <f>IFERROR(VLOOKUP(T22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Takao[Fog]</v>
+      </c>
+      <c r="AA22" t="str">
+        <f>IFERROR(VLOOKUP(U22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Nagara[Fog]</v>
+      </c>
+      <c r="AB22" t="str">
+        <f>IFERROR(VLOOKUP(V22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AC22" t="str">
+        <f>IFERROR(VLOOKUP(W22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AD22" t="str">
+        <f>IFERROR(VLOOKUP(X22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AE22" t="str">
+        <f>IFERROR(VLOOKUP(Y22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="AM22" s="10" t="str">
+        <f>IFERROR(VLOOKUP(AG22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Takao[Fog]</v>
+      </c>
+      <c r="AN22" t="str">
+        <f>IFERROR(VLOOKUP(AH22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Nagara[Fog]</v>
+      </c>
+      <c r="AO22" t="str">
+        <f>IFERROR(VLOOKUP(AI22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AP22" t="str">
+        <f>IFERROR(VLOOKUP(AJ22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AQ22" t="str">
+        <f>IFERROR(VLOOKUP(AK22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Fletcher-Class[Fog]</v>
+      </c>
+      <c r="AR22" t="str">
+        <f>IFERROR(VLOOKUP(AL22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Fletcher-Class[Fog]</v>
       </c>
     </row>
@@ -102965,152 +103616,197 @@
     <mergeCell ref="AM1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:R11">
+    <cfRule type="cellIs" dxfId="10" priority="80" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:AE11">
+    <cfRule type="cellIs" dxfId="10" priority="79" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM11:AR11">
+    <cfRule type="cellIs" dxfId="10" priority="78" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:R12">
+    <cfRule type="cellIs" dxfId="10" priority="74" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z12:AE12">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12:AR12">
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:R13">
     <cfRule type="cellIs" dxfId="10" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z11:AE11">
-    <cfRule type="cellIs" dxfId="10" priority="70" operator="equal">
+  <conditionalFormatting sqref="Z13:AE13">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM11:AR11">
-    <cfRule type="cellIs" dxfId="10" priority="69" operator="equal">
+  <conditionalFormatting sqref="AM13:AR13">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:R12">
-    <cfRule type="cellIs" dxfId="10" priority="65" operator="equal">
+  <conditionalFormatting sqref="M14:R14">
+    <cfRule type="cellIs" dxfId="10" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z12:AE12">
+  <conditionalFormatting sqref="Z14:AE14">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14:AR14">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:R15">
+    <cfRule type="cellIs" dxfId="10" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z15:AE15">
+    <cfRule type="cellIs" dxfId="10" priority="60" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM15:AR15">
+    <cfRule type="cellIs" dxfId="10" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:R16">
+    <cfRule type="cellIs" dxfId="10" priority="58" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z16:AE16">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM16:AR16">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:R17">
+    <cfRule type="cellIs" dxfId="10" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z17:AE17">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM17:AR17">
     <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM12:AR12">
+  <conditionalFormatting sqref="M18:R18">
+    <cfRule type="cellIs" dxfId="10" priority="52" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z18:AE18">
     <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:R13">
-    <cfRule type="cellIs" dxfId="10" priority="62" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z13:AE13">
+  <conditionalFormatting sqref="AM18:AR18">
     <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM13:AR13">
+  <conditionalFormatting sqref="M19:R19">
     <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:R14">
-    <cfRule type="cellIs" dxfId="10" priority="57" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z14:AE14">
+  <conditionalFormatting sqref="Z19:AE19">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM14:AR14">
+  <conditionalFormatting sqref="AM19:AR19">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:R15">
-    <cfRule type="cellIs" dxfId="10" priority="54" operator="equal">
+  <conditionalFormatting sqref="M20:R20">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z15:AE15">
-    <cfRule type="cellIs" dxfId="10" priority="51" operator="equal">
+  <conditionalFormatting sqref="Z20:AE20">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM15:AR15">
-    <cfRule type="cellIs" dxfId="10" priority="50" operator="equal">
+  <conditionalFormatting sqref="AM20:AR20">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:R16">
-    <cfRule type="cellIs" dxfId="10" priority="49" operator="equal">
+  <conditionalFormatting sqref="M21:R21">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z16:AE16">
+  <conditionalFormatting sqref="Z21:AE21">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM21:AR21">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22:R22">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM16:AR16">
+  <conditionalFormatting sqref="Z22:AE22">
     <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:R17">
-    <cfRule type="cellIs" dxfId="10" priority="46" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z17:AE17">
+  <conditionalFormatting sqref="AM22:AR22">
     <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM17:AR17">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:R18">
-    <cfRule type="cellIs" dxfId="10" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z18:AE18">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM18:AR18">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19:R19">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z19:AE19">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM19:AR19">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M2:R10">
-    <cfRule type="cellIs" dxfId="10" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AE10">
-    <cfRule type="cellIs" dxfId="10" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="190" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM2:AR10">
-    <cfRule type="cellIs" dxfId="10" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="189" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -103118,4 +103814,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>